--- a/protobuff/backup/Privilege/groupPrivilege.xlsx
+++ b/protobuff/backup/Privilege/groupPrivilege.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\server\protobuff\backup\Privilege\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42040" yWindow="0" windowWidth="28440" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="42045" yWindow="0" windowWidth="28440" windowHeight="19545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="groupPrivilegeProperties" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
     <author>dragon li</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>特权来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,50 +255,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日帮派秘境挑战次数已用完，购买普通月卡可以增加挑战次数。</t>
-  </si>
-  <si>
-    <r>
-      <t>今日帮派秘境挑战次数已用完，提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>VIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>等级可以增加挑战次数</t>
-    </r>
-  </si>
-  <si>
     <t>今日帮派秘境挑战次数已用完，大神，您已经无法再增加挑战次数</t>
   </si>
   <si>
-    <t>今日帮派捐献次数已用完，购买至尊月卡可以增加捐献次数</t>
-  </si>
-  <si>
-    <t>今日帮派捐献次数已用完，提升VIP等级可以增加捐献次数。</t>
-  </si>
-  <si>
     <t>今日帮派捐献次数已用完，大神，您已经无法再增加捐献次数。</t>
+  </si>
+  <si>
+    <t>今日帮派捐献次数已用完，{buyCharge}可以增加捐献次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日帮派秘境挑战次数已用完，{buyCharge}可以增加挑战次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,28 +345,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
+      <sz val="20"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -408,32 +384,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF4472C4"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4472C4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF4472C4"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4472C4"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -457,7 +418,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,12 +437,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -490,17 +456,24 @@
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -828,101 +801,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" thickBot="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43" thickBot="1">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -932,17 +908,14 @@
       <c r="C5" s="2">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43" thickBot="1">
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -950,15 +923,13 @@
         <v>51</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="F6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -981,9 +952,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="23">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23">
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23">
+    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1025,7 +996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23">
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27">
+    <row r="5" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27">
+    <row r="6" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27">
+    <row r="7" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1044,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="27">
+    <row r="8" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1054,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1064,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="27">
+    <row r="10" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27">
+    <row r="11" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1115,7 +1086,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="27">
+    <row r="12" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1096,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="27">
+    <row r="13" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1106,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="27">
+    <row r="14" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1147,7 +1118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27">
+    <row r="15" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1157,7 +1128,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="27">
+    <row r="16" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1167,7 +1138,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="27">
+    <row r="17" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1177,7 +1148,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="27">
+    <row r="18" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1187,7 +1158,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="27">
+    <row r="19" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1197,7 +1168,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="27">
+    <row r="20" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1209,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23">
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1221,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23">
+    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>

--- a/protobuff/backup/Privilege/groupPrivilege.xlsx
+++ b/protobuff/backup/Privilege/groupPrivilege.xlsx
@@ -261,11 +261,11 @@
     <t>今日帮派捐献次数已用完，大神，您已经无法再增加捐献次数。</t>
   </si>
   <si>
-    <t>今日帮派捐献次数已用完，{buyCharge}可以增加捐献次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日帮派秘境挑战次数已用完，{buyCharge}可以增加挑战次数</t>
+    <t>今日帮派捐献次数已用完，提高VIP等级可以增加捐献次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日帮派秘境挑战次数已用完，提高VIP等级可以增加挑战次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +805,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/protobuff/backup/Privilege/groupPrivilege.xlsx
+++ b/protobuff/backup/Privilege/groupPrivilege.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42045" yWindow="0" windowWidth="28440" windowHeight="19545" tabRatio="500"/>
+    <workbookView xWindow="42045" yWindow="0" windowWidth="28440" windowHeight="19545" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="groupPrivilegeProperties" sheetId="1" r:id="rId1"/>
     <sheet name="groupPrivilege" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -99,174 +99,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>monthNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthVip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>donateCount</t>
+  </si>
+  <si>
+    <t>mysteryChallengeCount</t>
+  </si>
+  <si>
+    <t>帮派可捐献次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派秘境挑战次数</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字段:特权控制点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权提升提示模板</t>
+  </si>
+  <si>
+    <t>特权到达上限提示模板</t>
+  </si>
+  <si>
+    <t>特权开启提示模板</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyTip</t>
+  </si>
+  <si>
+    <t>nomoreTip</t>
+  </si>
+  <si>
+    <t>enableTip</t>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>RefEnum(cs:Privilege.GroupPrivilegeNames,java:com.rwproto.PrivilegeProtos.GroupPrivilegeNames)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>donateCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysteryChallengeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派可捐献次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派秘境挑战次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日帮派秘境挑战次数已用完，大神，您已经无法再增加挑战次数</t>
+  </si>
+  <si>
+    <t>今日帮派捐献次数已用完，大神，您已经无法再增加捐献次数。</t>
+  </si>
+  <si>
+    <t>今日帮派捐献次数已用完，提高VIP等级可以增加捐献次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日帮派秘境挑战次数已用完，提高VIP等级可以增加挑战次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>vip2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthNormal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthVip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>donateCount</t>
-  </si>
-  <si>
-    <t>mysteryChallengeCount</t>
-  </si>
-  <si>
-    <t>帮派可捐献次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派秘境挑战次数</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字段:特权控制点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特权提升提示模板</t>
-  </si>
-  <si>
-    <t>特权到达上限提示模板</t>
-  </si>
-  <si>
-    <t>特权开启提示模板</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>threshold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyTip</t>
-  </si>
-  <si>
-    <t>nomoreTip</t>
-  </si>
-  <si>
-    <t>enableTip</t>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>RefEnum(cs:Privilege.GroupPrivilegeNames,java:com.rwproto.PrivilegeProtos.GroupPrivilegeNames)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>donateCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysteryChallengeCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派可捐献次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派秘境挑战次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日帮派秘境挑战次数已用完，大神，您已经无法再增加挑战次数</t>
-  </si>
-  <si>
-    <t>今日帮派捐献次数已用完，大神，您已经无法再增加捐献次数。</t>
-  </si>
-  <si>
-    <t>今日帮派捐献次数已用完，提高VIP等级可以增加捐献次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日帮派秘境挑战次数已用完，提高VIP等级可以增加挑战次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -801,11 +787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -820,33 +806,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>3</v>
@@ -860,27 +846,27 @@
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>7</v>
@@ -889,45 +875,45 @@
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -948,11 +934,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -962,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
@@ -976,10 +966,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
@@ -990,10 +980,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
@@ -1004,10 +994,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
@@ -1016,7 +1006,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1028,67 +1018,67 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
+      <c r="A7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
+      <c r="A8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
+      <c r="A9" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
+      <c r="A10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
+      <c r="A11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
+      <c r="A12" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="5">
@@ -1097,84 +1087,84 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
+      <c r="A13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
+      <c r="A14" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>18</v>
+      <c r="A15" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
+      <c r="A16" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
+      <c r="A17" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
+      <c r="A18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
+      <c r="A19" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>23</v>
+      <c r="A20" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -1182,7 +1172,7 @@
     </row>
     <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
@@ -1194,7 +1184,7 @@
     </row>
     <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">

--- a/protobuff/backup/Privilege/groupPrivilege.xlsx
+++ b/protobuff/backup/Privilege/groupPrivilege.xlsx
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1000,7 +1000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1008,11 +1008,11 @@
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1020,8 +1020,8 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
+      <c r="D6" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
@@ -1032,7 +1032,9 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1040,9 +1042,11 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1050,9 +1054,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1060,10 +1066,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
@@ -1072,9 +1078,11 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1082,9 +1090,11 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1092,9 +1102,11 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1102,10 +1114,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="5">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
@@ -1114,9 +1126,11 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1124,9 +1138,11 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="5">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1134,9 +1150,11 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -1144,9 +1162,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="5">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -1154,9 +1174,11 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="5">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -1164,9 +1186,9 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="5">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1175,24 +1197,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
